--- a/medicine/Pharmacie/Classe_ATC_J05/Classe_ATC_J05.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_J05/Classe_ATC_J05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une section du code ATC :
 J Anti-infectieux généraux à usage systémique
-J05 Antiviraux à usage systémique[1].
+J05 Antiviraux à usage systémique.
 </t>
         </is>
       </c>
@@ -515,10 +527,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>J05AA Thiosémicarbazones
-J05AA01 Métisazone
-J05AB Nucléosides et nucléotides, inhibiteurs de la transcriptase inverse exclus
-J05AB01 Aciclovir
+          <t>J05AA Thiosémicarbazones</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>J05AA01 Métisazone</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>J05AB Nucléosides et nucléotides, inhibiteurs de la transcriptase inverse exclus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>J05AB01 Aciclovir
 J05AB02 Idoxuridine (en)
 J05AB03 Vidarabine (en)
 J05AB06 Ganciclovir
@@ -527,15 +578,117 @@
 J05AB12 Cidofovir
 J05AB13 Penciclovir (en)
 J05AB14 Valganciclovir
-J05AB15 Brivudine (en)
-J05AC Amines cycliques
-J05AC02 Rimantadine
-J05AC03 Tromantadine (en)
-J05AD Dérivés de l'acide phosphonique
-J05AD01 Foscarnet
-J05AD02 Fosfonet
-J05AE Inhibiteurs de protéase
-J05AE01 Saquinavir
+J05AB15 Brivudine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>J05AC Amines cycliques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>J05AC02 Rimantadine
+J05AC03 Tromantadine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>J05AD Dérivés de l'acide phosphonique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J05AD01 Foscarnet
+J05AD02 Fosfonet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>J05AE Inhibiteurs de protéase</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J05AE01 Saquinavir
 J05AE02 Indinavir
 J05AE03 Ritonavir
 J05AE04 Nelfinavir
@@ -543,9 +696,43 @@
 J05AE07 Fosamprénavir
 J05AE08 Atazanavir
 J05AE09 Tipranavir
-J05AE10 Darunavir (en)
-J05AF Inhibiteurs de la transcriptase inverse nucléosidiques et nucléotidiques
-J05AF01 Zidovudine
+J05AE10 Darunavir (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>J05AF Inhibiteurs de la transcriptase inverse nucléosidiques et nucléotidiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J05AF01 Zidovudine
 J05AF02 Didanosine
 J05AF03 Zalcitabine
 J05AF04 Stavudine
@@ -557,18 +744,120 @@
 J05AF10 Entécavir (en)
 J05AF11 Telbivudine (en)
 J05AF12 Clévudine (en)
-J05AF13 Ténofovir alafénamide
-J05AG Inhibiteurs de la transcriptase inverse non nucléosides
-J05AG01 Névirapine
+J05AF13 Ténofovir alafénamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>J05AG Inhibiteurs de la transcriptase inverse non nucléosides</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>J05AG01 Névirapine
 J05AG02 Délavirdine
 J05AG03 Éfavirenz
 J05AG04 Étravirine
-J05AG05 Rilpivirine
-J05AH Inhibiteurs de la neuraminidase
-J05AH01 Zanamivir
-J05AH02 Oseltamivir
-J05AP Antiviraux pour le traitement des infections au VHC
-J05AP01 Ribavirine
+J05AG05 Rilpivirine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>J05AH Inhibiteurs de la neuraminidase</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>J05AH01 Zanamivir
+J05AH02 Oseltamivir</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J05AP Antiviraux pour le traitement des infections au VHC</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>J05AP01 Ribavirine
 J05AP02 Télaprévir
 J05AP03 Bocéprévir
 J05AP04 Faldaprévir (en)
@@ -582,9 +871,43 @@
 J05AP53 Ombitasvir, paritaprévir et ritonavir
 J05AP54 Élbasvir et grazoprévir
 J05AP55 Sofosbuvir et velpatasvir
-J05AP56 Sofosbuvir, velpatasvir et voxilaprévir
-J05AR Antiviraux pour le traitement des infections HIV en association
-J05AR01 Zidovudine et lamivudine (en)
+J05AP56 Sofosbuvir, velpatasvir et voxilaprévir</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J05AR Antiviraux pour le traitement des infections HIV en association</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>J05AR01 Zidovudine et lamivudine (en)
 J05AR02 Lamivudine et abacavir (en)
 J05AR03 Ténofovir disoproxil et émtricitabine
 J05AR04 Zidovudine, lamivudine et abacavir (en)
@@ -605,9 +928,43 @@
 J05AR19 Émtricitabine, ténofovir alafénamide et rilpivirine
 J05AR20 Émtricitabine, ténofovir alafénamide et bictégravir
 J05AR21 Dolutégravir et rilpivirine
-J05AR22 Émtricitabine, ténofovir alafénamide, darunavir et cobicistat
-J05AX Autres antiviraux
-J05AX01 Moroxydine (en)
+J05AR22 Émtricitabine, ténofovir alafénamide, darunavir et cobicistat</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_J05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>J05A Antiviraux à action directe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J05AX Autres antiviraux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>J05AX01 Moroxydine (en)
 J05AX02 Lysozyme
 J05AX05 Inosine pranobex
 J05AX06 Pléconaril (en)
